--- a/data/trans_dic/P04D$aparatos-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.153431705341886</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3912487807034993</v>
+        <v>0.3912487807034994</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.5509920918801893</v>
@@ -655,7 +655,7 @@
         <v>0.1457696875964713</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.455470256012297</v>
+        <v>0.4554702560122969</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5750697985194116</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5343306050848673</v>
+        <v>0.5438777823471393</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1155625631041468</v>
+        <v>0.1133881473501977</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3337479263524959</v>
+        <v>0.3368559074260089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4870581857970721</v>
+        <v>0.4885210364258341</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1052597716228629</v>
+        <v>0.1098731423042242</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4079358470549667</v>
+        <v>0.407379431307158</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5357611204281699</v>
+        <v>0.5294155967747691</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1209055706675986</v>
+        <v>0.1206741841537192</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3874813381199191</v>
+        <v>0.3890022686043751</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6549125330909916</v>
+        <v>0.6590943060959663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2051995604529175</v>
+        <v>0.2000263586594918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.450210165984372</v>
+        <v>0.4510665225120055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6096868139422927</v>
+        <v>0.6070342513976068</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1873746842982044</v>
+        <v>0.1988570359985337</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4999608706611456</v>
+        <v>0.5023403146030444</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6191664215802374</v>
+        <v>0.6136016015275854</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1828123608511097</v>
+        <v>0.1788124420627638</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4611684517932098</v>
+        <v>0.4638186169206573</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.3545391266260813</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8364105636460142</v>
+        <v>0.8364105636460143</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.6955538191439444</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6331283408169422</v>
+        <v>0.6332756325635247</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.313960017360953</v>
+        <v>0.3121896063081459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7932518888732789</v>
+        <v>0.7932496932500198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6562620984995381</v>
+        <v>0.6500793401662013</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2893332635979622</v>
+        <v>0.2873621048837497</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8310852957105952</v>
+        <v>0.8294822379771523</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6571816208508841</v>
+        <v>0.6557537706345399</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.310832229821073</v>
+        <v>0.3109656819337381</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8212822769506549</v>
+        <v>0.8234895072720314</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7218735317239848</v>
+        <v>0.7223269721735017</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3976498104519028</v>
+        <v>0.3973848492631978</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8721661547530987</v>
+        <v>0.8733864192250083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.73656503163537</v>
+        <v>0.7404812703035681</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3751085828561458</v>
+        <v>0.3707723220305912</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8810833589975386</v>
+        <v>0.8845155528158241</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7156839918283224</v>
+        <v>0.7151161556199688</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.368789110625115</v>
+        <v>0.3714767630482494</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8694860936225663</v>
+        <v>0.8685519326645423</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7071899555311226</v>
+        <v>0.7023152650464657</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7598869805459996</v>
+        <v>0.7567162712649033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6601369712091332</v>
+        <v>0.653963012269797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7363288077950689</v>
+        <v>0.740249317127317</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7653255685312756</v>
+        <v>0.7621994829062276</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6917911086128417</v>
+        <v>0.6850192965332922</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7422808315124237</v>
+        <v>0.7370723763511395</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7760588631787554</v>
+        <v>0.7740167355452667</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6887534816007496</v>
+        <v>0.6916775044525711</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8016925034197088</v>
+        <v>0.8019891971399279</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8481498657804563</v>
+        <v>0.8455288522808514</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7562111295230005</v>
+        <v>0.7567303849746593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8307314262369594</v>
+        <v>0.8298230520013518</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8491768774153479</v>
+        <v>0.8490703298699048</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7706016314291955</v>
+        <v>0.7651703867014198</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8071557637566287</v>
+        <v>0.805223424637482</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8362667097844408</v>
+        <v>0.8352615033443873</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7528031028227582</v>
+        <v>0.7517982521896804</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.6219774317771352</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.4589765163398468</v>
+        <v>0.4589765163398469</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5333602265726957</v>
+        <v>0.5401081962496834</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.56473812726146</v>
+        <v>0.5648923341111098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3552817975610804</v>
+        <v>0.3635935869081992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5702621314889227</v>
+        <v>0.5706714677059721</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5685195071735832</v>
+        <v>0.5748397278533476</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4409589735645369</v>
+        <v>0.4371508966250149</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5668513637917614</v>
+        <v>0.5691167190851126</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5836170110988876</v>
+        <v>0.5857650511341088</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4174646987424999</v>
+        <v>0.4167276490212289</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6404225573893977</v>
+        <v>0.6444736030293284</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6665623397556055</v>
+        <v>0.6694983155988792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4851150233749922</v>
+        <v>0.4948873039010079</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6706315004730967</v>
+        <v>0.668434354573323</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6743429604649321</v>
+        <v>0.6740829372004161</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5369054678868854</v>
+        <v>0.5348475967323368</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6417288933790288</v>
+        <v>0.6420219245267178</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6589310286790857</v>
+        <v>0.6596698508821633</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4972726206988509</v>
+        <v>0.4987517067524925</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.8950204141563444</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9821503265471484</v>
+        <v>0.9821503265471485</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.5293545699091607</v>
@@ -1091,7 +1091,7 @@
         <v>0.8935187275268753</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.9741742350058409</v>
+        <v>0.9741742350058408</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.5737895592177249</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5443292236425763</v>
+        <v>0.54728738272949</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8460195364633869</v>
+        <v>0.8444933038346445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9557607622129027</v>
+        <v>0.955122454026493</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4566347446865318</v>
+        <v>0.4548731509724258</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8463060894512313</v>
+        <v>0.84962038327196</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9594803275829156</v>
+        <v>0.9572144575862352</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5250994276053002</v>
+        <v>0.5266421381145299</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8661720238243618</v>
+        <v>0.8616338974245537</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.963387631865653</v>
+        <v>0.9634380591492628</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6843854899941295</v>
+        <v>0.6887546583634662</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9342496681074602</v>
+        <v>0.9300879840726548</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9942992013346333</v>
+        <v>0.9951688482027548</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5972750921845665</v>
+        <v>0.5884965521529172</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9297105470478934</v>
+        <v>0.9274887466341393</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9858925369773481</v>
+        <v>0.9845879591428638</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.624421183993188</v>
+        <v>0.624098433448143</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9188530374429935</v>
+        <v>0.9200364727971477</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9867569396304793</v>
+        <v>0.9865638547967259</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.2387427134394915</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.5425978701599012</v>
+        <v>0.542597870159901</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.7020192448664412</v>
@@ -1209,7 +1209,7 @@
         <v>0.2462129504137781</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.5528984245284948</v>
+        <v>0.5528984245284947</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6245569938388038</v>
+        <v>0.6224627732587085</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1965233726395575</v>
+        <v>0.2029574929404922</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5045204769371139</v>
+        <v>0.5062310796012216</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6591570722878769</v>
+        <v>0.6626133619941601</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1867124263909472</v>
+        <v>0.1870984640401943</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4925539399212455</v>
+        <v>0.4892215513354039</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6645913455126822</v>
+        <v>0.6603479411901845</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2102141705770128</v>
+        <v>0.2082445174890236</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5185639556694492</v>
+        <v>0.5142819837919479</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7393521905241438</v>
+        <v>0.7408665049020788</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3141058157365384</v>
+        <v>0.3076429716208458</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6124510422846324</v>
+        <v>0.6164403571706767</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.772206893186129</v>
+        <v>0.7730971205623579</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.296314829906816</v>
+        <v>0.2890131312150517</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5908822679777521</v>
+        <v>0.5879793690528752</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7412398669141673</v>
+        <v>0.740789325198545</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2845147920642075</v>
+        <v>0.2814694170413475</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.589783064760305</v>
+        <v>0.5887741767399305</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.5123309938919101</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3020437417495695</v>
+        <v>0.3020437417495694</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.7275270769298878</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.68670882932782</v>
+        <v>0.6901657148293263</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4730964467093502</v>
+        <v>0.4738164080064895</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2708809426601633</v>
+        <v>0.2707187024289193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6906233858984706</v>
+        <v>0.6901740699203813</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4728564501418739</v>
+        <v>0.4774589580249384</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2721214580311058</v>
+        <v>0.2701838232935147</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7027064405474494</v>
+        <v>0.7036069985199133</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4849695830094747</v>
+        <v>0.4860072396599586</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2783805430585714</v>
+        <v>0.2822076256966169</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7640436021354479</v>
+        <v>0.7617497896437107</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5565527604168671</v>
+        <v>0.5528414071827903</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3524756312661688</v>
+        <v>0.352963839836384</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7598463849702074</v>
+        <v>0.7590117777404808</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5489548506683801</v>
+        <v>0.5501570940614958</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3336154846918298</v>
+        <v>0.3326530810954179</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7537108187229976</v>
+        <v>0.7534788373871221</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5428483668095329</v>
+        <v>0.543474966757045</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3305944568344538</v>
+        <v>0.3326268625517539</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.6176179088984983</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.89953910093027</v>
+        <v>0.8995391009302702</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.5239610819533546</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4490049212805713</v>
+        <v>0.4491763979540126</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6069788315680293</v>
+        <v>0.6056316977170382</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8876270116112648</v>
+        <v>0.8873246105911997</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5216773897233978</v>
+        <v>0.5227252267814769</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5818908541199935</v>
+        <v>0.584844098456004</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8808182058912738</v>
+        <v>0.881891822139655</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4991262819904298</v>
+        <v>0.4962982168115769</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6039395401150467</v>
+        <v>0.6049834274784539</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8903621508597077</v>
+        <v>0.8905590170172284</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5254377782660206</v>
+        <v>0.523983788325704</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6767824475848625</v>
+        <v>0.6733652265917672</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9322813886244269</v>
+        <v>0.9325113335447935</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5952390607416921</v>
+        <v>0.5971825006677923</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6553121756224998</v>
+        <v>0.6554295175291548</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9172719172985759</v>
+        <v>0.9179942807580298</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5502168795290777</v>
+        <v>0.5470016193121253</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6543354739315707</v>
+        <v>0.6534015178030291</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9186170353099882</v>
+        <v>0.9187245365368005</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>0.5304533200093672</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.639535895173044</v>
+        <v>0.6395358951730439</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.6505296478309722</v>
@@ -1536,7 +1536,7 @@
         <v>0.5266603652025651</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.6449482783181421</v>
+        <v>0.6449482783181419</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6133493868600493</v>
+        <v>0.6162669573543206</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5135629425466633</v>
+        <v>0.5119977106528035</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6203749423489878</v>
+        <v>0.6213513957312661</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6338064808942335</v>
+        <v>0.6343732405299802</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5069475991328501</v>
+        <v>0.5056975642318083</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6364878406813426</v>
+        <v>0.6359383427220725</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6308586181760962</v>
+        <v>0.6295151029025172</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5149388689738688</v>
+        <v>0.5140863489528112</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6322777692923882</v>
+        <v>0.6335552018935728</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6479150529899986</v>
+        <v>0.6498533083020606</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5478775047510674</v>
+        <v>0.5468507161135466</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6568764456402475</v>
+        <v>0.6568735835222312</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6679417962311314</v>
+        <v>0.6667209065917047</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5393925398779188</v>
+        <v>0.5401158489672195</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6637361293629623</v>
+        <v>0.6636171567885694</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6540384128592316</v>
+        <v>0.6541190070536096</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5388067026155419</v>
+        <v>0.5389706972380044</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6572268927118184</v>
+        <v>0.6572087143094787</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>156526</v>
+        <v>159323</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>33948</v>
+        <v>33309</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>106414</v>
+        <v>107405</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>139357</v>
+        <v>139776</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>30389</v>
+        <v>31721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>128933</v>
+        <v>128757</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>310237</v>
+        <v>306563</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>70423</v>
+        <v>70288</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>246014</v>
+        <v>246980</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>191849</v>
+        <v>193074</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>60280</v>
+        <v>58760</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>143547</v>
+        <v>143820</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>174444</v>
+        <v>173685</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>54096</v>
+        <v>57411</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>158018</v>
+        <v>158770</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>358534</v>
+        <v>355312</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>106482</v>
+        <v>104152</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>292799</v>
+        <v>294481</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>318843</v>
+        <v>318917</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>157788</v>
+        <v>156899</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>420937</v>
+        <v>420936</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>342343</v>
+        <v>339118</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>151346</v>
+        <v>150315</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>454183</v>
+        <v>453307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>673779</v>
+        <v>672315</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>318808</v>
+        <v>318945</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>884637</v>
+        <v>887014</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>363535</v>
+        <v>363763</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>199849</v>
+        <v>199716</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>462812</v>
+        <v>463460</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>384234</v>
+        <v>386276</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>196213</v>
+        <v>193945</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>481507</v>
+        <v>483382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>733759</v>
+        <v>733176</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>378252</v>
+        <v>381008</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>936559</v>
+        <v>935553</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>229162</v>
+        <v>227582</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>242073</v>
+        <v>241063</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>207882</v>
+        <v>205938</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>251103</v>
+        <v>252440</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>257386</v>
+        <v>256335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>245699</v>
+        <v>243294</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>493666</v>
+        <v>490202</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>508221</v>
+        <v>506883</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>461514</v>
+        <v>463474</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>259785</v>
+        <v>259881</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>270191</v>
+        <v>269356</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>238137</v>
+        <v>238300</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>283296</v>
+        <v>282986</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>285586</v>
+        <v>285550</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>273690</v>
+        <v>271761</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>536812</v>
+        <v>535527</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>547649</v>
+        <v>546991</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>504432</v>
+        <v>503759</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>198952</v>
+        <v>201470</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>208933</v>
+        <v>208990</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>132572</v>
+        <v>135673</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>221804</v>
+        <v>221963</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>220178</v>
+        <v>222626</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>184530</v>
+        <v>182937</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>431923</v>
+        <v>433649</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>441942</v>
+        <v>443569</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>330473</v>
+        <v>329890</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>238889</v>
+        <v>240400</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>246604</v>
+        <v>247690</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>181018</v>
+        <v>184665</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>260843</v>
+        <v>259988</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>261162</v>
+        <v>261061</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>224682</v>
+        <v>223820</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>488977</v>
+        <v>489200</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>498974</v>
+        <v>499533</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>393651</v>
+        <v>394822</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>115734</v>
+        <v>116363</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>178697</v>
+        <v>178375</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>196567</v>
+        <v>196435</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>100273</v>
+        <v>99886</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>184992</v>
+        <v>185716</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>219226</v>
+        <v>218708</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>226953</v>
+        <v>227619</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>372288</v>
+        <v>370337</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>418254</v>
+        <v>418276</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>145513</v>
+        <v>146442</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>197333</v>
+        <v>196454</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>204493</v>
+        <v>204671</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>131156</v>
+        <v>129229</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>203223</v>
+        <v>202737</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>225261</v>
+        <v>224963</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>269880</v>
+        <v>269741</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>394930</v>
+        <v>395439</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>428400</v>
+        <v>428316</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>171117</v>
+        <v>170543</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>51710</v>
+        <v>53403</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>136577</v>
+        <v>137040</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>183943</v>
+        <v>184908</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>50994</v>
+        <v>51099</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>129911</v>
+        <v>129032</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>367545</v>
+        <v>365198</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>112725</v>
+        <v>111669</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>277150</v>
+        <v>274862</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>202568</v>
+        <v>202983</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>82648</v>
+        <v>80948</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>165795</v>
+        <v>166875</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>215491</v>
+        <v>215739</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>80928</v>
+        <v>78934</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>155845</v>
+        <v>155080</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>409935</v>
+        <v>409685</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>152568</v>
+        <v>150935</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>315214</v>
+        <v>314674</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>455142</v>
+        <v>457434</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>310615</v>
+        <v>311088</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>192961</v>
+        <v>192845</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>479191</v>
+        <v>478879</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>326883</v>
+        <v>330065</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>208957</v>
+        <v>207469</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>953320</v>
+        <v>954542</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>653667</v>
+        <v>655066</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>412066</v>
+        <v>417731</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>506399</v>
+        <v>504879</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>365409</v>
+        <v>362972</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>251084</v>
+        <v>251432</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>527222</v>
+        <v>526643</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>379489</v>
+        <v>380320</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>256177</v>
+        <v>255438</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1022515</v>
+        <v>1022200</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>731679</v>
+        <v>732524</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>489355</v>
+        <v>492363</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>348740</v>
+        <v>348874</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>472583</v>
+        <v>471535</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>706302</v>
+        <v>706061</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>429785</v>
+        <v>430649</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>480739</v>
+        <v>483179</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>732251</v>
+        <v>733144</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>798876</v>
+        <v>794350</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>969172</v>
+        <v>970847</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1448664</v>
+        <v>1448984</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>408105</v>
+        <v>406976</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>526931</v>
+        <v>524271</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>741834</v>
+        <v>742017</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>490389</v>
+        <v>491991</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>541397</v>
+        <v>541494</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>762557</v>
+        <v>763157</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>880649</v>
+        <v>875503</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1050045</v>
+        <v>1048546</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1494636</v>
+        <v>1494811</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2097461</v>
+        <v>2107438</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1743212</v>
+        <v>1737899</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2184949</v>
+        <v>2188388</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2252613</v>
+        <v>2254627</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1796897</v>
+        <v>1792466</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2372599</v>
+        <v>2370551</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>4399473</v>
+        <v>4390104</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>3573105</v>
+        <v>3567190</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4583776</v>
+        <v>4593037</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2215665</v>
+        <v>2222293</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1859688</v>
+        <v>1856203</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2313506</v>
+        <v>2313496</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2373933</v>
+        <v>2369594</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1911900</v>
+        <v>1914463</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2474171</v>
+        <v>2473728</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>4561124</v>
+        <v>4561686</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3738722</v>
+        <v>3739859</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4764648</v>
+        <v>4764516</v>
       </c>
     </row>
     <row r="40">
